--- a/inputs/ramp_input.xlsx
+++ b/inputs/ramp_input.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="115">
   <si>
     <t>user_name</t>
   </si>
@@ -172,10 +172,7 @@
     <t>high income</t>
   </si>
   <si>
-    <t>higher middle income</t>
-  </si>
-  <si>
-    <t>lower middle income</t>
+    <t>middle income</t>
   </si>
   <si>
     <t>low income</t>
@@ -193,6 +190,21 @@
     <t>church</t>
   </si>
   <si>
+    <t>Tailoring</t>
+  </si>
+  <si>
+    <t>Small Bars</t>
+  </si>
+  <si>
+    <t>Saw Mill</t>
+  </si>
+  <si>
+    <t>Bakery</t>
+  </si>
+  <si>
+    <t>irrigation_system</t>
+  </si>
+  <si>
     <t>HI_indoor_bulb</t>
   </si>
   <si>
@@ -214,58 +226,25 @@
     <t>HI_Freezer</t>
   </si>
   <si>
-    <t>HI_Freezer2</t>
-  </si>
-  <si>
-    <t>HI_Mixer</t>
-  </si>
-  <si>
-    <t>HMI_indoor_bulb</t>
-  </si>
-  <si>
-    <t>HMI_outdoor_bulb</t>
-  </si>
-  <si>
-    <t>HMI_TV</t>
-  </si>
-  <si>
-    <t>HMI_DVD</t>
-  </si>
-  <si>
-    <t>HMI_Antenna</t>
-  </si>
-  <si>
-    <t>HMI_Radio</t>
-  </si>
-  <si>
-    <t>HMI_Phone_charger</t>
-  </si>
-  <si>
-    <t>HMI_Freezer</t>
-  </si>
-  <si>
-    <t>HMI_Mixer</t>
-  </si>
-  <si>
-    <t>LMI_indoor_bulb</t>
-  </si>
-  <si>
-    <t>LMI_outdoor_bulb</t>
-  </si>
-  <si>
-    <t>LMI_TV</t>
-  </si>
-  <si>
-    <t>LMI_DVD</t>
-  </si>
-  <si>
-    <t>LMI_Antenna</t>
-  </si>
-  <si>
-    <t>LMI_Phone_charger</t>
-  </si>
-  <si>
-    <t>LMI_Mixer</t>
+    <t>HI_Dish_washer</t>
+  </si>
+  <si>
+    <t>MI_indoor_bulb</t>
+  </si>
+  <si>
+    <t>MI_outdoor_bulb</t>
+  </si>
+  <si>
+    <t>MI_TV</t>
+  </si>
+  <si>
+    <t>MI_DVD</t>
+  </si>
+  <si>
+    <t>MI_Antenna</t>
+  </si>
+  <si>
+    <t>MI_Phone_charger</t>
   </si>
   <si>
     <t>LI_indoor_bulb</t>
@@ -301,9 +280,6 @@
     <t>Ho_Fridge2</t>
   </si>
   <si>
-    <t>Ho_Fridge3</t>
-  </si>
-  <si>
     <t>Ho_PC</t>
   </si>
   <si>
@@ -325,24 +301,12 @@
     <t>S_Printer</t>
   </si>
   <si>
-    <t>S_Freezer</t>
-  </si>
-  <si>
-    <t>S_TV</t>
-  </si>
-  <si>
-    <t>S_DVD</t>
-  </si>
-  <si>
     <t>S_Stereo</t>
   </si>
   <si>
     <t>Pub_lights</t>
   </si>
   <si>
-    <t>Pub_lights_2</t>
-  </si>
-  <si>
     <t>Ch_indoor_bulb</t>
   </si>
   <si>
@@ -350,6 +314,45 @@
   </si>
   <si>
     <t>Ch_speaker</t>
+  </si>
+  <si>
+    <t>T_indoor_bulb</t>
+  </si>
+  <si>
+    <t>T_outdoor_bulb</t>
+  </si>
+  <si>
+    <t>Sewing_Machine</t>
+  </si>
+  <si>
+    <t>T_Iron</t>
+  </si>
+  <si>
+    <t>SB_indoor_bulb</t>
+  </si>
+  <si>
+    <t>SB_TV</t>
+  </si>
+  <si>
+    <t>SB_outdoor_bulb</t>
+  </si>
+  <si>
+    <t>SB_Antenna</t>
+  </si>
+  <si>
+    <t>SB_Freezer</t>
+  </si>
+  <si>
+    <t>SB_Phone_charger</t>
+  </si>
+  <si>
+    <t>SB_Saw_mill</t>
+  </si>
+  <si>
+    <t>SB_Owen</t>
+  </si>
+  <si>
+    <t>Pump</t>
   </si>
   <si>
     <t>no</t>
@@ -713,7 +716,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AY54"/>
+  <dimension ref="A1:AY51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -879,13 +882,13 @@
         <v>51</v>
       </c>
       <c r="B2">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="C2">
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E2">
         <v>6</v>
@@ -906,7 +909,7 @@
         <v>10</v>
       </c>
       <c r="K2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -915,7 +918,7 @@
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -1034,13 +1037,13 @@
         <v>51</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="C3">
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -1061,7 +1064,7 @@
         <v>10</v>
       </c>
       <c r="K3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -1070,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -1189,13 +1192,13 @@
         <v>51</v>
       </c>
       <c r="B4">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -1216,7 +1219,7 @@
         <v>5</v>
       </c>
       <c r="K4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -1225,7 +1228,7 @@
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -1344,13 +1347,13 @@
         <v>51</v>
       </c>
       <c r="B5">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1371,7 +1374,7 @@
         <v>5</v>
       </c>
       <c r="K5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1380,7 +1383,7 @@
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -1499,13 +1502,13 @@
         <v>51</v>
       </c>
       <c r="B6">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="C6">
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1526,7 +1529,7 @@
         <v>5</v>
       </c>
       <c r="K6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1535,7 +1538,7 @@
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -1654,13 +1657,13 @@
         <v>51</v>
       </c>
       <c r="B7">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E7">
         <v>5</v>
@@ -1681,7 +1684,7 @@
         <v>5</v>
       </c>
       <c r="K7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1690,7 +1693,7 @@
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -1809,13 +1812,13 @@
         <v>51</v>
       </c>
       <c r="B8">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="C8">
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1836,7 +1839,7 @@
         <v>30</v>
       </c>
       <c r="K8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L8">
         <v>3</v>
@@ -1845,7 +1848,7 @@
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -1964,43 +1967,43 @@
         <v>51</v>
       </c>
       <c r="B9">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="C9">
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="H9">
-        <v>1440</v>
+        <v>60</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="J9">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="K9" t="s">
         <v>113</v>
       </c>
       <c r="L9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -2012,22 +2015,22 @@
         <v>2</v>
       </c>
       <c r="R9">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="S9">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T9">
-        <v>580</v>
+        <v>0</v>
       </c>
       <c r="U9">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="V9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="W9">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="X9">
         <v>0</v>
@@ -2039,22 +2042,22 @@
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AB9">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AC9">
-        <v>510</v>
+        <v>0</v>
       </c>
       <c r="AD9">
-        <v>579</v>
+        <v>0</v>
       </c>
       <c r="AE9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AF9">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AG9">
         <v>0</v>
@@ -2066,37 +2069,37 @@
         <v>0</v>
       </c>
       <c r="AJ9">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AK9">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AL9">
         <v>0</v>
       </c>
       <c r="AM9">
-        <v>509</v>
+        <v>0</v>
       </c>
       <c r="AN9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AO9">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AP9">
-        <v>1201</v>
+        <v>0</v>
       </c>
       <c r="AQ9">
-        <v>1440</v>
+        <v>0</v>
       </c>
       <c r="AR9">
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="AT9">
-        <v>1440</v>
+        <v>1260</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2111,51 +2114,51 @@
         <v>0</v>
       </c>
       <c r="AY9">
-        <v>0</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="10" spans="1:51">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B10">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="C10">
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F10">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="G10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H10">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="I10">
         <v>0.35</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -2248,22 +2251,22 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>0</v>
+        <v>1170</v>
       </c>
       <c r="AT10">
-        <v>480</v>
+        <v>1440</v>
       </c>
       <c r="AU10">
-        <v>660</v>
+        <v>0</v>
       </c>
       <c r="AV10">
-        <v>750</v>
+        <v>30</v>
       </c>
       <c r="AW10">
-        <v>1140</v>
+        <v>0</v>
       </c>
       <c r="AX10">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="AY10">
         <v>0.35</v>
@@ -2274,25 +2277,25 @@
         <v>52</v>
       </c>
       <c r="B11">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="C11">
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G11">
         <v>2</v>
       </c>
       <c r="H11">
-        <v>120</v>
+        <v>450</v>
       </c>
       <c r="I11">
         <v>0.35</v>
@@ -2301,7 +2304,7 @@
         <v>10</v>
       </c>
       <c r="K11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -2310,7 +2313,7 @@
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -2403,16 +2406,16 @@
         <v>0</v>
       </c>
       <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <v>330</v>
+      </c>
+      <c r="AU11">
         <v>1170</v>
       </c>
-      <c r="AT11">
+      <c r="AV11">
         <v>1440</v>
-      </c>
-      <c r="AU11">
-        <v>0</v>
-      </c>
-      <c r="AV11">
-        <v>30</v>
       </c>
       <c r="AW11">
         <v>0</v>
@@ -2429,25 +2432,25 @@
         <v>52</v>
       </c>
       <c r="B12">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="C12">
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F12">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H12">
-        <v>600</v>
+        <v>140</v>
       </c>
       <c r="I12">
         <v>0.35</v>
@@ -2456,7 +2459,7 @@
         <v>10</v>
       </c>
       <c r="K12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -2465,7 +2468,7 @@
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -2561,7 +2564,7 @@
         <v>0</v>
       </c>
       <c r="AT12">
-        <v>330</v>
+        <v>900</v>
       </c>
       <c r="AU12">
         <v>1170</v>
@@ -2573,7 +2576,7 @@
         <v>0</v>
       </c>
       <c r="AX12">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AY12">
         <v>0.35</v>
@@ -2584,34 +2587,34 @@
         <v>52</v>
       </c>
       <c r="B13">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="C13">
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H13">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="I13">
         <v>0.35</v>
       </c>
       <c r="J13">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K13" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -2620,7 +2623,7 @@
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -2713,22 +2716,22 @@
         <v>0</v>
       </c>
       <c r="AS13">
+        <v>0</v>
+      </c>
+      <c r="AT13">
+        <v>900</v>
+      </c>
+      <c r="AU13">
         <v>1170</v>
       </c>
-      <c r="AT13">
+      <c r="AV13">
         <v>1440</v>
       </c>
-      <c r="AU13">
-        <v>0</v>
-      </c>
-      <c r="AV13">
+      <c r="AW13">
+        <v>0</v>
+      </c>
+      <c r="AX13">
         <v>60</v>
-      </c>
-      <c r="AW13">
-        <v>0</v>
-      </c>
-      <c r="AX13">
-        <v>0</v>
       </c>
       <c r="AY13">
         <v>0.35</v>
@@ -2739,34 +2742,34 @@
         <v>52</v>
       </c>
       <c r="B14">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="C14">
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F14">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G14">
         <v>2</v>
       </c>
       <c r="H14">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="I14">
         <v>0.35</v>
       </c>
       <c r="J14">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -2775,7 +2778,7 @@
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -2868,16 +2871,16 @@
         <v>0</v>
       </c>
       <c r="AS14">
+        <v>0</v>
+      </c>
+      <c r="AT14">
+        <v>900</v>
+      </c>
+      <c r="AU14">
         <v>1170</v>
       </c>
-      <c r="AT14">
+      <c r="AV14">
         <v>1440</v>
-      </c>
-      <c r="AU14">
-        <v>0</v>
-      </c>
-      <c r="AV14">
-        <v>60</v>
       </c>
       <c r="AW14">
         <v>0</v>
@@ -2894,34 +2897,34 @@
         <v>52</v>
       </c>
       <c r="B15">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="C15">
         <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F15">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H15">
-        <v>80</v>
+        <v>280</v>
       </c>
       <c r="I15">
         <v>0.35</v>
       </c>
       <c r="J15">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K15" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -2930,7 +2933,7 @@
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -3023,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1170</v>
+        <v>1110</v>
       </c>
       <c r="AT15">
         <v>1440</v>
@@ -3032,7 +3035,7 @@
         <v>0</v>
       </c>
       <c r="AV15">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AW15">
         <v>0</v>
@@ -3046,37 +3049,37 @@
     </row>
     <row r="16" spans="1:51">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B16">
-        <v>38</v>
+        <v>320</v>
       </c>
       <c r="C16">
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="G16">
         <v>2</v>
       </c>
       <c r="H16">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="I16">
         <v>0.35</v>
       </c>
       <c r="J16">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K16" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -3085,7 +3088,7 @@
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -3178,16 +3181,16 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>390</v>
+        <v>1170</v>
       </c>
       <c r="AT16">
-        <v>450</v>
+        <v>1440</v>
       </c>
       <c r="AU16">
-        <v>1140</v>
+        <v>0</v>
       </c>
       <c r="AV16">
-        <v>1260</v>
+        <v>30</v>
       </c>
       <c r="AW16">
         <v>0</v>
@@ -3201,37 +3204,37 @@
     </row>
     <row r="17" spans="1:51">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B17">
-        <v>38</v>
+        <v>320</v>
       </c>
       <c r="C17">
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="G17">
         <v>2</v>
       </c>
       <c r="H17">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="I17">
         <v>0.35</v>
       </c>
       <c r="J17">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K17" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -3240,7 +3243,7 @@
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -3333,16 +3336,16 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1110</v>
+        <v>0</v>
       </c>
       <c r="AT17">
+        <v>330</v>
+      </c>
+      <c r="AU17">
+        <v>1170</v>
+      </c>
+      <c r="AV17">
         <v>1440</v>
-      </c>
-      <c r="AU17">
-        <v>0</v>
-      </c>
-      <c r="AV17">
-        <v>30</v>
       </c>
       <c r="AW17">
         <v>0</v>
@@ -3356,177 +3359,177 @@
     </row>
     <row r="18" spans="1:51">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B18">
-        <v>38</v>
+        <v>320</v>
       </c>
       <c r="C18">
         <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H18">
+        <v>90</v>
+      </c>
+      <c r="I18">
+        <v>0.35</v>
+      </c>
+      <c r="J18">
+        <v>5</v>
+      </c>
+      <c r="K18" t="s">
+        <v>113</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>113</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>2</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
+      </c>
+      <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18">
+        <v>0</v>
+      </c>
+      <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AN18">
+        <v>0</v>
+      </c>
+      <c r="AO18">
+        <v>0</v>
+      </c>
+      <c r="AP18">
+        <v>0</v>
+      </c>
+      <c r="AQ18">
+        <v>0</v>
+      </c>
+      <c r="AR18">
+        <v>0</v>
+      </c>
+      <c r="AS18">
+        <v>750</v>
+      </c>
+      <c r="AT18">
+        <v>840</v>
+      </c>
+      <c r="AU18">
+        <v>1170</v>
+      </c>
+      <c r="AV18">
         <v>1440</v>
       </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
+      <c r="AW18">
+        <v>0</v>
+      </c>
+      <c r="AX18">
         <v>30</v>
       </c>
-      <c r="K18" t="s">
-        <v>113</v>
-      </c>
-      <c r="L18">
-        <v>3</v>
-      </c>
-      <c r="M18">
-        <v>1</v>
-      </c>
-      <c r="N18" t="s">
-        <v>112</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>2</v>
-      </c>
-      <c r="R18">
-        <v>200</v>
-      </c>
-      <c r="S18">
-        <v>20</v>
-      </c>
-      <c r="T18">
-        <v>580</v>
-      </c>
-      <c r="U18">
-        <v>1200</v>
-      </c>
-      <c r="V18">
-        <v>5</v>
-      </c>
-      <c r="W18">
-        <v>10</v>
-      </c>
-      <c r="X18">
-        <v>0</v>
-      </c>
-      <c r="Y18">
-        <v>0</v>
-      </c>
-      <c r="Z18">
-        <v>0</v>
-      </c>
-      <c r="AA18">
-        <v>200</v>
-      </c>
-      <c r="AB18">
-        <v>15</v>
-      </c>
-      <c r="AC18">
-        <v>510</v>
-      </c>
-      <c r="AD18">
-        <v>579</v>
-      </c>
-      <c r="AE18">
-        <v>5</v>
-      </c>
-      <c r="AF18">
-        <v>15</v>
-      </c>
-      <c r="AG18">
-        <v>0</v>
-      </c>
-      <c r="AH18">
-        <v>0</v>
-      </c>
-      <c r="AI18">
-        <v>0</v>
-      </c>
-      <c r="AJ18">
-        <v>200</v>
-      </c>
-      <c r="AK18">
-        <v>10</v>
-      </c>
-      <c r="AL18">
-        <v>0</v>
-      </c>
-      <c r="AM18">
-        <v>509</v>
-      </c>
-      <c r="AN18">
-        <v>5</v>
-      </c>
-      <c r="AO18">
-        <v>20</v>
-      </c>
-      <c r="AP18">
-        <v>1201</v>
-      </c>
-      <c r="AQ18">
-        <v>1440</v>
-      </c>
-      <c r="AR18">
-        <v>0</v>
-      </c>
-      <c r="AS18">
-        <v>0</v>
-      </c>
-      <c r="AT18">
-        <v>1440</v>
-      </c>
-      <c r="AU18">
-        <v>0</v>
-      </c>
-      <c r="AV18">
-        <v>0</v>
-      </c>
-      <c r="AW18">
-        <v>0</v>
-      </c>
-      <c r="AX18">
-        <v>0</v>
-      </c>
       <c r="AY18">
-        <v>0</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="19" spans="1:51">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B19">
-        <v>38</v>
+        <v>320</v>
       </c>
       <c r="C19">
         <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="G19">
         <v>3</v>
@@ -3538,19 +3541,19 @@
         <v>0.35</v>
       </c>
       <c r="J19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K19" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -3643,22 +3646,22 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="AT19">
-        <v>450</v>
+        <v>840</v>
       </c>
       <c r="AU19">
-        <v>660</v>
+        <v>1170</v>
       </c>
       <c r="AV19">
-        <v>750</v>
+        <v>1440</v>
       </c>
       <c r="AW19">
-        <v>1020</v>
+        <v>0</v>
       </c>
       <c r="AX19">
-        <v>1170</v>
+        <v>30</v>
       </c>
       <c r="AY19">
         <v>0.35</v>
@@ -3669,34 +3672,34 @@
         <v>53</v>
       </c>
       <c r="B20">
-        <v>34</v>
+        <v>320</v>
       </c>
       <c r="C20">
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>8</v>
+      </c>
+      <c r="G20">
         <v>3</v>
       </c>
-      <c r="F20">
-        <v>7</v>
-      </c>
-      <c r="G20">
-        <v>2</v>
-      </c>
       <c r="H20">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="I20">
         <v>0.35</v>
       </c>
       <c r="J20">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K20" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -3705,7 +3708,7 @@
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -3798,22 +3801,22 @@
         <v>0</v>
       </c>
       <c r="AS20">
+        <v>750</v>
+      </c>
+      <c r="AT20">
+        <v>840</v>
+      </c>
+      <c r="AU20">
         <v>1170</v>
       </c>
-      <c r="AT20">
+      <c r="AV20">
         <v>1440</v>
       </c>
-      <c r="AU20">
-        <v>0</v>
-      </c>
-      <c r="AV20">
+      <c r="AW20">
+        <v>0</v>
+      </c>
+      <c r="AX20">
         <v>30</v>
-      </c>
-      <c r="AW20">
-        <v>0</v>
-      </c>
-      <c r="AX20">
-        <v>0</v>
       </c>
       <c r="AY20">
         <v>0.35</v>
@@ -3824,34 +3827,34 @@
         <v>53</v>
       </c>
       <c r="B21">
-        <v>34</v>
+        <v>320</v>
       </c>
       <c r="C21">
         <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E21">
         <v>2</v>
       </c>
       <c r="F21">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H21">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="I21">
         <v>0.35</v>
       </c>
       <c r="J21">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K21" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -3860,7 +3863,7 @@
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -3953,16 +3956,16 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>0</v>
+        <v>1080</v>
       </c>
       <c r="AT21">
-        <v>330</v>
+        <v>1440</v>
       </c>
       <c r="AU21">
-        <v>1170</v>
+        <v>0</v>
       </c>
       <c r="AV21">
-        <v>1440</v>
+        <v>0</v>
       </c>
       <c r="AW21">
         <v>0</v>
@@ -3976,37 +3979,37 @@
     </row>
     <row r="22" spans="1:51">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B22">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="C22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F22">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="G22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H22">
-        <v>90</v>
+        <v>690</v>
       </c>
       <c r="I22">
         <v>0.35</v>
       </c>
       <c r="J22">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K22" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -4015,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -4108,22 +4111,22 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>450</v>
+        <v>480</v>
       </c>
       <c r="AT22">
-        <v>660</v>
+        <v>720</v>
       </c>
       <c r="AU22">
-        <v>720</v>
+        <v>870</v>
       </c>
       <c r="AV22">
-        <v>840</v>
+        <v>1440</v>
       </c>
       <c r="AW22">
-        <v>1170</v>
+        <v>0</v>
       </c>
       <c r="AX22">
-        <v>1440</v>
+        <v>0</v>
       </c>
       <c r="AY22">
         <v>0.35</v>
@@ -4131,37 +4134,37 @@
     </row>
     <row r="23" spans="1:51">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B23">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="C23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
       <c r="F23">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H23">
-        <v>30</v>
+        <v>690</v>
       </c>
       <c r="I23">
         <v>0.35</v>
       </c>
       <c r="J23">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K23" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -4170,7 +4173,7 @@
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -4263,22 +4266,22 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="AT23">
-        <v>660</v>
+        <v>330</v>
       </c>
       <c r="AU23">
-        <v>720</v>
+        <v>1050</v>
       </c>
       <c r="AV23">
-        <v>840</v>
+        <v>1440</v>
       </c>
       <c r="AW23">
-        <v>1170</v>
+        <v>0</v>
       </c>
       <c r="AX23">
-        <v>1440</v>
+        <v>0</v>
       </c>
       <c r="AY23">
         <v>0.35</v>
@@ -4286,28 +4289,28 @@
     </row>
     <row r="24" spans="1:51">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B24">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="C24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D24" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F24">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H24">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="I24">
         <v>0.35</v>
@@ -4316,7 +4319,7 @@
         <v>5</v>
       </c>
       <c r="K24" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -4325,7 +4328,7 @@
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -4418,22 +4421,22 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>450</v>
+        <v>480</v>
       </c>
       <c r="AT24">
-        <v>660</v>
+        <v>720</v>
       </c>
       <c r="AU24">
-        <v>720</v>
+        <v>900</v>
       </c>
       <c r="AV24">
-        <v>840</v>
+        <v>1440</v>
       </c>
       <c r="AW24">
-        <v>1170</v>
+        <v>0</v>
       </c>
       <c r="AX24">
-        <v>1440</v>
+        <v>0</v>
       </c>
       <c r="AY24">
         <v>0.35</v>
@@ -4441,73 +4444,73 @@
     </row>
     <row r="25" spans="1:51">
       <c r="A25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B25">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25" t="s">
+        <v>86</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>150</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>1440</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>30</v>
+      </c>
+      <c r="K25" t="s">
+        <v>114</v>
+      </c>
+      <c r="L25">
         <v>3</v>
       </c>
-      <c r="D25" t="s">
-        <v>82</v>
-      </c>
-      <c r="E25">
-        <v>4</v>
-      </c>
-      <c r="F25">
-        <v>2</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-      <c r="H25">
-        <v>300</v>
-      </c>
-      <c r="I25">
-        <v>0.35</v>
-      </c>
-      <c r="J25">
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>113</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>2</v>
+      </c>
+      <c r="R25">
+        <v>150</v>
+      </c>
+      <c r="S25">
+        <v>20</v>
+      </c>
+      <c r="T25">
+        <v>580</v>
+      </c>
+      <c r="U25">
+        <v>1200</v>
+      </c>
+      <c r="V25">
         <v>5</v>
       </c>
-      <c r="K25" t="s">
-        <v>112</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
-        <v>1</v>
-      </c>
-      <c r="N25" t="s">
-        <v>112</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>2</v>
-      </c>
-      <c r="R25">
-        <v>0</v>
-      </c>
-      <c r="S25">
-        <v>0</v>
-      </c>
-      <c r="T25">
-        <v>0</v>
-      </c>
-      <c r="U25">
-        <v>0</v>
-      </c>
-      <c r="V25">
-        <v>0</v>
-      </c>
       <c r="W25">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X25">
         <v>0</v>
@@ -4519,22 +4522,22 @@
         <v>0</v>
       </c>
       <c r="AA25">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AB25">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AC25">
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="AD25">
-        <v>0</v>
+        <v>579</v>
       </c>
       <c r="AE25">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AF25">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AG25">
         <v>0</v>
@@ -4546,34 +4549,34 @@
         <v>0</v>
       </c>
       <c r="AJ25">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AK25">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AL25">
         <v>0</v>
       </c>
       <c r="AM25">
-        <v>0</v>
+        <v>419</v>
       </c>
       <c r="AN25">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AO25">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AP25">
-        <v>0</v>
+        <v>1201</v>
       </c>
       <c r="AQ25">
-        <v>0</v>
+        <v>1440</v>
       </c>
       <c r="AR25">
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>1020</v>
+        <v>0</v>
       </c>
       <c r="AT25">
         <v>1440</v>
@@ -4591,51 +4594,51 @@
         <v>0</v>
       </c>
       <c r="AY25">
-        <v>0.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:51">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B26">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>87</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>150</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>1440</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>30</v>
+      </c>
+      <c r="K26" t="s">
+        <v>114</v>
+      </c>
+      <c r="L26">
         <v>3</v>
       </c>
-      <c r="D26" t="s">
-        <v>83</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>50</v>
-      </c>
-      <c r="G26">
-        <v>2</v>
-      </c>
-      <c r="H26">
-        <v>30</v>
-      </c>
-      <c r="I26">
-        <v>0.35</v>
-      </c>
-      <c r="J26">
-        <v>1</v>
-      </c>
-      <c r="K26" t="s">
-        <v>112</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
       <c r="M26">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O26">
         <v>0</v>
@@ -4647,22 +4650,22 @@
         <v>2</v>
       </c>
       <c r="R26">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="S26">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T26">
-        <v>0</v>
+        <v>580</v>
       </c>
       <c r="U26">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="V26">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W26">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X26">
         <v>0</v>
@@ -4674,22 +4677,22 @@
         <v>0</v>
       </c>
       <c r="AA26">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AB26">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AC26">
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="AD26">
-        <v>0</v>
+        <v>579</v>
       </c>
       <c r="AE26">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AF26">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AG26">
         <v>0</v>
@@ -4701,43 +4704,43 @@
         <v>0</v>
       </c>
       <c r="AJ26">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AK26">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AL26">
         <v>0</v>
       </c>
       <c r="AM26">
-        <v>0</v>
+        <v>419</v>
       </c>
       <c r="AN26">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AO26">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AP26">
-        <v>0</v>
+        <v>1201</v>
       </c>
       <c r="AQ26">
-        <v>0</v>
+        <v>1440</v>
       </c>
       <c r="AR26">
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>660</v>
+        <v>0</v>
       </c>
       <c r="AT26">
-        <v>750</v>
+        <v>1440</v>
       </c>
       <c r="AU26">
-        <v>1110</v>
+        <v>0</v>
       </c>
       <c r="AV26">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="AW26">
         <v>0</v>
@@ -4746,7 +4749,7 @@
         <v>0</v>
       </c>
       <c r="AY26">
-        <v>0.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:51">
@@ -4754,25 +4757,25 @@
         <v>54</v>
       </c>
       <c r="B27">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E27">
         <v>2</v>
       </c>
       <c r="F27">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="G27">
         <v>2</v>
       </c>
       <c r="H27">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="I27">
         <v>0.35</v>
@@ -4781,7 +4784,7 @@
         <v>10</v>
       </c>
       <c r="K27" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -4790,7 +4793,7 @@
         <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O27">
         <v>0</v>
@@ -4883,16 +4886,16 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>1170</v>
+        <v>480</v>
       </c>
       <c r="AT27">
+        <v>720</v>
+      </c>
+      <c r="AU27">
+        <v>1050</v>
+      </c>
+      <c r="AV27">
         <v>1440</v>
-      </c>
-      <c r="AU27">
-        <v>0</v>
-      </c>
-      <c r="AV27">
-        <v>30</v>
       </c>
       <c r="AW27">
         <v>0</v>
@@ -4909,43 +4912,43 @@
         <v>54</v>
       </c>
       <c r="B28">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="C28">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E28">
         <v>1</v>
       </c>
       <c r="F28">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="G28">
         <v>2</v>
       </c>
       <c r="H28">
-        <v>600</v>
+        <v>60</v>
       </c>
       <c r="I28">
         <v>0.35</v>
       </c>
       <c r="J28">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K28" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L28">
         <v>0</v>
       </c>
       <c r="M28">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="N28" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O28">
         <v>0</v>
@@ -5038,13 +5041,13 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="AT28">
-        <v>330</v>
+        <v>720</v>
       </c>
       <c r="AU28">
-        <v>1170</v>
+        <v>1050</v>
       </c>
       <c r="AV28">
         <v>1440</v>
@@ -5061,37 +5064,37 @@
     </row>
     <row r="29" spans="1:51">
       <c r="A29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B29">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="C29">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F29">
+        <v>7</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
         <v>60</v>
-      </c>
-      <c r="G29">
-        <v>3</v>
-      </c>
-      <c r="H29">
-        <v>90</v>
       </c>
       <c r="I29">
         <v>0.35</v>
       </c>
       <c r="J29">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K29" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -5100,7 +5103,7 @@
         <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O29">
         <v>0</v>
@@ -5193,22 +5196,22 @@
         <v>0</v>
       </c>
       <c r="AS29">
-        <v>750</v>
+        <v>1020</v>
       </c>
       <c r="AT29">
-        <v>840</v>
+        <v>1080</v>
       </c>
       <c r="AU29">
-        <v>1170</v>
+        <v>0</v>
       </c>
       <c r="AV29">
-        <v>1440</v>
+        <v>0</v>
       </c>
       <c r="AW29">
         <v>0</v>
       </c>
       <c r="AX29">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AY29">
         <v>0.35</v>
@@ -5216,37 +5219,37 @@
     </row>
     <row r="30" spans="1:51">
       <c r="A30" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B30">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="C30">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D30" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F30">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H30">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="I30">
         <v>0.35</v>
       </c>
       <c r="J30">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K30" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -5255,7 +5258,7 @@
         <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O30">
         <v>0</v>
@@ -5348,22 +5351,22 @@
         <v>0</v>
       </c>
       <c r="AS30">
-        <v>750</v>
+        <v>1020</v>
       </c>
       <c r="AT30">
-        <v>840</v>
+        <v>1080</v>
       </c>
       <c r="AU30">
-        <v>1170</v>
+        <v>0</v>
       </c>
       <c r="AV30">
-        <v>1440</v>
+        <v>0</v>
       </c>
       <c r="AW30">
         <v>0</v>
       </c>
       <c r="AX30">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AY30">
         <v>0.35</v>
@@ -5371,28 +5374,28 @@
     </row>
     <row r="31" spans="1:51">
       <c r="A31" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B31">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="C31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D31" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F31">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H31">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="I31">
         <v>0.35</v>
@@ -5401,7 +5404,7 @@
         <v>5</v>
       </c>
       <c r="K31" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L31">
         <v>0</v>
@@ -5410,7 +5413,7 @@
         <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O31">
         <v>0</v>
@@ -5503,22 +5506,22 @@
         <v>0</v>
       </c>
       <c r="AS31">
+        <v>510</v>
+      </c>
+      <c r="AT31">
         <v>750</v>
       </c>
-      <c r="AT31">
-        <v>840</v>
-      </c>
       <c r="AU31">
-        <v>1170</v>
+        <v>810</v>
       </c>
       <c r="AV31">
-        <v>1440</v>
+        <v>1080</v>
       </c>
       <c r="AW31">
         <v>0</v>
       </c>
       <c r="AX31">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AY31">
         <v>0.35</v>
@@ -5526,37 +5529,37 @@
     </row>
     <row r="32" spans="1:51">
       <c r="A32" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B32">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="C32">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D32" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F32">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="G32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H32">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="I32">
         <v>0.35</v>
       </c>
       <c r="J32">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K32" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -5565,7 +5568,7 @@
         <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O32">
         <v>0</v>
@@ -5658,16 +5661,16 @@
         <v>0</v>
       </c>
       <c r="AS32">
+        <v>510</v>
+      </c>
+      <c r="AT32">
+        <v>750</v>
+      </c>
+      <c r="AU32">
+        <v>810</v>
+      </c>
+      <c r="AV32">
         <v>1080</v>
-      </c>
-      <c r="AT32">
-        <v>1440</v>
-      </c>
-      <c r="AU32">
-        <v>0</v>
-      </c>
-      <c r="AV32">
-        <v>0</v>
       </c>
       <c r="AW32">
         <v>0</v>
@@ -5684,34 +5687,34 @@
         <v>55</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
       <c r="D33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E33">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="G33">
         <v>2</v>
       </c>
       <c r="H33">
-        <v>690</v>
+        <v>30</v>
       </c>
       <c r="I33">
         <v>0.35</v>
       </c>
       <c r="J33">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K33" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -5720,7 +5723,7 @@
         <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O33">
         <v>0</v>
@@ -5813,16 +5816,16 @@
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="AT33">
-        <v>720</v>
+        <v>750</v>
       </c>
       <c r="AU33">
-        <v>870</v>
+        <v>810</v>
       </c>
       <c r="AV33">
-        <v>1440</v>
+        <v>1080</v>
       </c>
       <c r="AW33">
         <v>0</v>
@@ -5839,43 +5842,43 @@
         <v>55</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C34">
         <v>0</v>
       </c>
       <c r="D34" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E34">
         <v>1</v>
       </c>
       <c r="F34">
-        <v>13</v>
+        <v>150</v>
       </c>
       <c r="G34">
         <v>2</v>
       </c>
       <c r="H34">
-        <v>690</v>
+        <v>90</v>
       </c>
       <c r="I34">
         <v>0.35</v>
       </c>
       <c r="J34">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K34" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L34">
         <v>0</v>
       </c>
       <c r="M34">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="N34" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O34">
         <v>0</v>
@@ -5968,16 +5971,16 @@
         <v>0</v>
       </c>
       <c r="AS34">
-        <v>0</v>
+        <v>510</v>
       </c>
       <c r="AT34">
-        <v>330</v>
+        <v>750</v>
       </c>
       <c r="AU34">
-        <v>1050</v>
+        <v>810</v>
       </c>
       <c r="AV34">
-        <v>1440</v>
+        <v>1080</v>
       </c>
       <c r="AW34">
         <v>0</v>
@@ -5991,7 +5994,7 @@
     </row>
     <row r="35" spans="1:51">
       <c r="A35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -6000,28 +6003,28 @@
         <v>0</v>
       </c>
       <c r="D35" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E35">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F35">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="G35">
         <v>2</v>
       </c>
       <c r="H35">
+        <v>310</v>
+      </c>
+      <c r="I35">
+        <v>0.2</v>
+      </c>
+      <c r="J35">
         <v>300</v>
       </c>
-      <c r="I35">
-        <v>0.35</v>
-      </c>
-      <c r="J35">
-        <v>5</v>
-      </c>
       <c r="K35" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L35">
         <v>0</v>
@@ -6030,7 +6033,7 @@
         <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="O35">
         <v>0</v>
@@ -6123,13 +6126,13 @@
         <v>0</v>
       </c>
       <c r="AS35">
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="AT35">
-        <v>720</v>
+        <v>336</v>
       </c>
       <c r="AU35">
-        <v>900</v>
+        <v>1110</v>
       </c>
       <c r="AV35">
         <v>1440</v>
@@ -6141,51 +6144,51 @@
         <v>0</v>
       </c>
       <c r="AY35">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="36" spans="1:51">
       <c r="A36" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C36">
         <v>0</v>
       </c>
       <c r="D36" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F36">
-        <v>150</v>
+        <v>26</v>
       </c>
       <c r="G36">
         <v>1</v>
       </c>
       <c r="H36">
-        <v>1440</v>
+        <v>210</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J36">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K36" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L36">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M36">
         <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="O36">
         <v>0</v>
@@ -6197,22 +6200,22 @@
         <v>2</v>
       </c>
       <c r="R36">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="S36">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T36">
-        <v>580</v>
+        <v>0</v>
       </c>
       <c r="U36">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="V36">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="W36">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="X36">
         <v>0</v>
@@ -6224,22 +6227,22 @@
         <v>0</v>
       </c>
       <c r="AA36">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="AB36">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AC36">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="AD36">
-        <v>579</v>
+        <v>0</v>
       </c>
       <c r="AE36">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AF36">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AG36">
         <v>0</v>
@@ -6251,28 +6254,28 @@
         <v>0</v>
       </c>
       <c r="AJ36">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="AK36">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AL36">
         <v>0</v>
       </c>
       <c r="AM36">
-        <v>419</v>
+        <v>0</v>
       </c>
       <c r="AN36">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AO36">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AP36">
-        <v>1201</v>
+        <v>0</v>
       </c>
       <c r="AQ36">
-        <v>1440</v>
+        <v>0</v>
       </c>
       <c r="AR36">
         <v>0</v>
@@ -6296,51 +6299,51 @@
         <v>0</v>
       </c>
       <c r="AY36">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="37" spans="1:51">
       <c r="A37" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
       <c r="D37" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F37">
+        <v>26</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
         <v>150</v>
       </c>
-      <c r="G37">
-        <v>1</v>
-      </c>
-      <c r="H37">
-        <v>1440</v>
-      </c>
       <c r="I37">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J37">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K37" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L37">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M37">
         <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="O37">
         <v>0</v>
@@ -6352,22 +6355,22 @@
         <v>2</v>
       </c>
       <c r="R37">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="S37">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T37">
-        <v>580</v>
+        <v>0</v>
       </c>
       <c r="U37">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="V37">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="W37">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="X37">
         <v>0</v>
@@ -6379,22 +6382,22 @@
         <v>0</v>
       </c>
       <c r="AA37">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="AB37">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AC37">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="AD37">
-        <v>579</v>
+        <v>0</v>
       </c>
       <c r="AE37">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AF37">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AG37">
         <v>0</v>
@@ -6406,28 +6409,28 @@
         <v>0</v>
       </c>
       <c r="AJ37">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="AK37">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AL37">
         <v>0</v>
       </c>
       <c r="AM37">
-        <v>419</v>
+        <v>0</v>
       </c>
       <c r="AN37">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AO37">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AP37">
-        <v>1201</v>
+        <v>0</v>
       </c>
       <c r="AQ37">
-        <v>1440</v>
+        <v>0</v>
       </c>
       <c r="AR37">
         <v>0</v>
@@ -6451,51 +6454,51 @@
         <v>0</v>
       </c>
       <c r="AY37">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="38" spans="1:51">
       <c r="A38" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C38">
         <v>0</v>
       </c>
       <c r="D38" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E38">
         <v>1</v>
       </c>
       <c r="F38">
+        <v>100</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
         <v>150</v>
       </c>
-      <c r="G38">
-        <v>1</v>
-      </c>
-      <c r="H38">
-        <v>1440</v>
-      </c>
       <c r="I38">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J38">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K38" t="s">
         <v>113</v>
       </c>
       <c r="L38">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M38">
         <v>1</v>
       </c>
       <c r="N38" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O38">
         <v>0</v>
@@ -6507,22 +6510,22 @@
         <v>2</v>
       </c>
       <c r="R38">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="S38">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T38">
-        <v>580</v>
+        <v>0</v>
       </c>
       <c r="U38">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="V38">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="W38">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="X38">
         <v>0</v>
@@ -6534,22 +6537,22 @@
         <v>0</v>
       </c>
       <c r="AA38">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="AB38">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AC38">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="AD38">
-        <v>579</v>
+        <v>0</v>
       </c>
       <c r="AE38">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AF38">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AG38">
         <v>0</v>
@@ -6561,28 +6564,28 @@
         <v>0</v>
       </c>
       <c r="AJ38">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="AK38">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AL38">
         <v>0</v>
       </c>
       <c r="AM38">
-        <v>419</v>
+        <v>0</v>
       </c>
       <c r="AN38">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AO38">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AP38">
-        <v>1201</v>
+        <v>0</v>
       </c>
       <c r="AQ38">
-        <v>1440</v>
+        <v>0</v>
       </c>
       <c r="AR38">
         <v>0</v>
@@ -6591,7 +6594,7 @@
         <v>0</v>
       </c>
       <c r="AT38">
-        <v>1440</v>
+        <v>1350</v>
       </c>
       <c r="AU38">
         <v>0</v>
@@ -6606,33 +6609,33 @@
         <v>0</v>
       </c>
       <c r="AY38">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="39" spans="1:51">
       <c r="A39" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D39" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E39">
         <v>2</v>
       </c>
       <c r="F39">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="G39">
         <v>2</v>
       </c>
       <c r="H39">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="I39">
         <v>0.35</v>
@@ -6641,7 +6644,7 @@
         <v>10</v>
       </c>
       <c r="K39" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L39">
         <v>0</v>
@@ -6650,7 +6653,7 @@
         <v>1</v>
       </c>
       <c r="N39" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O39">
         <v>0</v>
@@ -6743,13 +6746,13 @@
         <v>0</v>
       </c>
       <c r="AS39">
-        <v>480</v>
+        <v>1080</v>
       </c>
       <c r="AT39">
-        <v>720</v>
+        <v>1140</v>
       </c>
       <c r="AU39">
-        <v>1050</v>
+        <v>1320</v>
       </c>
       <c r="AV39">
         <v>1440</v>
@@ -6766,46 +6769,46 @@
     </row>
     <row r="40" spans="1:51">
       <c r="A40" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D40" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E40">
         <v>1</v>
       </c>
       <c r="F40">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="G40">
         <v>2</v>
       </c>
       <c r="H40">
-        <v>60</v>
+        <v>600</v>
       </c>
       <c r="I40">
         <v>0.35</v>
       </c>
       <c r="J40">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K40" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L40">
         <v>0</v>
       </c>
       <c r="M40">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="N40" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O40">
         <v>0</v>
@@ -6898,13 +6901,13 @@
         <v>0</v>
       </c>
       <c r="AS40">
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="AT40">
-        <v>720</v>
+        <v>330</v>
       </c>
       <c r="AU40">
-        <v>1050</v>
+        <v>1170</v>
       </c>
       <c r="AV40">
         <v>1440</v>
@@ -6921,28 +6924,28 @@
     </row>
     <row r="41" spans="1:51">
       <c r="A41" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D41" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E41">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F41">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="G41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H41">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="I41">
         <v>0.35</v>
@@ -6951,7 +6954,7 @@
         <v>10</v>
       </c>
       <c r="K41" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -6960,7 +6963,7 @@
         <v>1</v>
       </c>
       <c r="N41" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O41">
         <v>0</v>
@@ -7053,16 +7056,16 @@
         <v>0</v>
       </c>
       <c r="AS41">
-        <v>1020</v>
+        <v>510</v>
       </c>
       <c r="AT41">
-        <v>1080</v>
+        <v>1140</v>
       </c>
       <c r="AU41">
-        <v>0</v>
+        <v>1170</v>
       </c>
       <c r="AV41">
-        <v>0</v>
+        <v>1440</v>
       </c>
       <c r="AW41">
         <v>0</v>
@@ -7076,25 +7079,25 @@
     </row>
     <row r="42" spans="1:51">
       <c r="A42" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D42" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E42">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F42">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="G42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H42">
         <v>60</v>
@@ -7106,7 +7109,7 @@
         <v>10</v>
       </c>
       <c r="K42" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L42">
         <v>0</v>
@@ -7115,7 +7118,7 @@
         <v>1</v>
       </c>
       <c r="N42" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O42">
         <v>0</v>
@@ -7208,16 +7211,16 @@
         <v>0</v>
       </c>
       <c r="AS42">
-        <v>1020</v>
+        <v>510</v>
       </c>
       <c r="AT42">
-        <v>1080</v>
+        <v>1140</v>
       </c>
       <c r="AU42">
-        <v>0</v>
+        <v>1170</v>
       </c>
       <c r="AV42">
-        <v>0</v>
+        <v>1440</v>
       </c>
       <c r="AW42">
         <v>0</v>
@@ -7231,25 +7234,25 @@
     </row>
     <row r="43" spans="1:51">
       <c r="A43" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D43" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E43">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F43">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H43">
         <v>180</v>
@@ -7258,10 +7261,10 @@
         <v>0.35</v>
       </c>
       <c r="J43">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K43" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L43">
         <v>0</v>
@@ -7270,7 +7273,7 @@
         <v>1</v>
       </c>
       <c r="N43" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O43">
         <v>0</v>
@@ -7363,16 +7366,16 @@
         <v>0</v>
       </c>
       <c r="AS43">
-        <v>510</v>
+        <v>1080</v>
       </c>
       <c r="AT43">
-        <v>750</v>
+        <v>1260</v>
       </c>
       <c r="AU43">
-        <v>810</v>
+        <v>0</v>
       </c>
       <c r="AV43">
-        <v>1080</v>
+        <v>0</v>
       </c>
       <c r="AW43">
         <v>0</v>
@@ -7386,28 +7389,28 @@
     </row>
     <row r="44" spans="1:51">
       <c r="A44" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D44" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E44">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="F44">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H44">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="I44">
         <v>0.35</v>
@@ -7416,7 +7419,7 @@
         <v>10</v>
       </c>
       <c r="K44" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L44">
         <v>0</v>
@@ -7425,7 +7428,7 @@
         <v>1</v>
       </c>
       <c r="N44" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O44">
         <v>0</v>
@@ -7518,16 +7521,16 @@
         <v>0</v>
       </c>
       <c r="AS44">
-        <v>510</v>
+        <v>960</v>
       </c>
       <c r="AT44">
-        <v>750</v>
+        <v>1260</v>
       </c>
       <c r="AU44">
-        <v>810</v>
+        <v>0</v>
       </c>
       <c r="AV44">
-        <v>1080</v>
+        <v>0</v>
       </c>
       <c r="AW44">
         <v>0</v>
@@ -7541,37 +7544,37 @@
     </row>
     <row r="45" spans="1:51">
       <c r="A45" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D45" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E45">
         <v>1</v>
       </c>
       <c r="F45">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G45">
         <v>2</v>
       </c>
       <c r="H45">
-        <v>30</v>
+        <v>600</v>
       </c>
       <c r="I45">
         <v>0.35</v>
       </c>
       <c r="J45">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K45" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L45">
         <v>0</v>
@@ -7580,7 +7583,7 @@
         <v>1</v>
       </c>
       <c r="N45" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O45">
         <v>0</v>
@@ -7673,16 +7676,16 @@
         <v>0</v>
       </c>
       <c r="AS45">
-        <v>510</v>
+        <v>1080</v>
       </c>
       <c r="AT45">
-        <v>750</v>
+        <v>1440</v>
       </c>
       <c r="AU45">
-        <v>810</v>
+        <v>0</v>
       </c>
       <c r="AV45">
-        <v>1080</v>
+        <v>360</v>
       </c>
       <c r="AW45">
         <v>0</v>
@@ -7696,46 +7699,46 @@
     </row>
     <row r="46" spans="1:51">
       <c r="A46" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D46" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E46">
         <v>1</v>
       </c>
       <c r="F46">
-        <v>200</v>
+        <v>8</v>
       </c>
       <c r="G46">
         <v>1</v>
       </c>
       <c r="H46">
-        <v>1440</v>
+        <v>180</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="J46">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="K46" t="s">
         <v>113</v>
       </c>
       <c r="L46">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M46">
         <v>1</v>
       </c>
       <c r="N46" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O46">
         <v>0</v>
@@ -7747,22 +7750,22 @@
         <v>2</v>
       </c>
       <c r="R46">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="S46">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T46">
-        <v>580</v>
+        <v>0</v>
       </c>
       <c r="U46">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="V46">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="W46">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="X46">
         <v>0</v>
@@ -7774,22 +7777,22 @@
         <v>0</v>
       </c>
       <c r="AA46">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AB46">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AC46">
-        <v>510</v>
+        <v>0</v>
       </c>
       <c r="AD46">
-        <v>579</v>
+        <v>0</v>
       </c>
       <c r="AE46">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AF46">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AG46">
         <v>0</v>
@@ -7801,37 +7804,37 @@
         <v>0</v>
       </c>
       <c r="AJ46">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AK46">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AL46">
         <v>0</v>
       </c>
       <c r="AM46">
-        <v>509</v>
+        <v>0</v>
       </c>
       <c r="AN46">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AO46">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AP46">
-        <v>1201</v>
+        <v>0</v>
       </c>
       <c r="AQ46">
-        <v>1440</v>
+        <v>0</v>
       </c>
       <c r="AR46">
         <v>0</v>
       </c>
       <c r="AS46">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AT46">
-        <v>1440</v>
+        <v>1260</v>
       </c>
       <c r="AU46">
         <v>0</v>
@@ -7846,78 +7849,78 @@
         <v>0</v>
       </c>
       <c r="AY46">
-        <v>0</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="47" spans="1:51">
       <c r="A47" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D47" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E47">
         <v>1</v>
       </c>
       <c r="F47">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="G47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H47">
-        <v>120</v>
+        <v>1440</v>
       </c>
       <c r="I47">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="J47">
+        <v>30</v>
+      </c>
+      <c r="K47" t="s">
+        <v>114</v>
+      </c>
+      <c r="L47">
+        <v>3</v>
+      </c>
+      <c r="M47">
+        <v>1</v>
+      </c>
+      <c r="N47" t="s">
+        <v>113</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>2</v>
+      </c>
+      <c r="R47">
+        <v>200</v>
+      </c>
+      <c r="S47">
+        <v>20</v>
+      </c>
+      <c r="T47">
+        <v>580</v>
+      </c>
+      <c r="U47">
+        <v>1200</v>
+      </c>
+      <c r="V47">
         <v>5</v>
       </c>
-      <c r="K47" t="s">
-        <v>112</v>
-      </c>
-      <c r="L47">
-        <v>0</v>
-      </c>
-      <c r="M47">
-        <v>0.5</v>
-      </c>
-      <c r="N47" t="s">
-        <v>112</v>
-      </c>
-      <c r="O47">
-        <v>0</v>
-      </c>
-      <c r="P47">
-        <v>0</v>
-      </c>
-      <c r="Q47">
-        <v>2</v>
-      </c>
-      <c r="R47">
-        <v>0</v>
-      </c>
-      <c r="S47">
-        <v>0</v>
-      </c>
-      <c r="T47">
-        <v>0</v>
-      </c>
-      <c r="U47">
-        <v>0</v>
-      </c>
-      <c r="V47">
-        <v>0</v>
-      </c>
       <c r="W47">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X47">
         <v>0</v>
@@ -7929,22 +7932,22 @@
         <v>0</v>
       </c>
       <c r="AA47">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AB47">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AC47">
-        <v>0</v>
+        <v>510</v>
       </c>
       <c r="AD47">
-        <v>0</v>
+        <v>579</v>
       </c>
       <c r="AE47">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AF47">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AG47">
         <v>0</v>
@@ -7956,43 +7959,43 @@
         <v>0</v>
       </c>
       <c r="AJ47">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AK47">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AL47">
         <v>0</v>
       </c>
       <c r="AM47">
-        <v>0</v>
+        <v>509</v>
       </c>
       <c r="AN47">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AO47">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AP47">
-        <v>0</v>
+        <v>1201</v>
       </c>
       <c r="AQ47">
-        <v>0</v>
+        <v>1440</v>
       </c>
       <c r="AR47">
         <v>0</v>
       </c>
       <c r="AS47">
-        <v>510</v>
+        <v>0</v>
       </c>
       <c r="AT47">
-        <v>750</v>
+        <v>1440</v>
       </c>
       <c r="AU47">
-        <v>810</v>
+        <v>0</v>
       </c>
       <c r="AV47">
-        <v>1080</v>
+        <v>0</v>
       </c>
       <c r="AW47">
         <v>0</v>
@@ -8001,30 +8004,30 @@
         <v>0</v>
       </c>
       <c r="AY47">
-        <v>0.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:51">
       <c r="A48" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D48" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E48">
         <v>1</v>
       </c>
       <c r="F48">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H48">
         <v>120</v>
@@ -8033,19 +8036,19 @@
         <v>0.35</v>
       </c>
       <c r="J48">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K48" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L48">
         <v>0</v>
       </c>
       <c r="M48">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="N48" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O48">
         <v>0</v>
@@ -8138,16 +8141,16 @@
         <v>0</v>
       </c>
       <c r="AS48">
-        <v>510</v>
+        <v>1080</v>
       </c>
       <c r="AT48">
-        <v>750</v>
+        <v>1260</v>
       </c>
       <c r="AU48">
-        <v>810</v>
+        <v>0</v>
       </c>
       <c r="AV48">
-        <v>1080</v>
+        <v>0</v>
       </c>
       <c r="AW48">
         <v>0</v>
@@ -8161,46 +8164,46 @@
     </row>
     <row r="49" spans="1:51">
       <c r="A49" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B49">
         <v>1</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D49" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E49">
         <v>1</v>
       </c>
       <c r="F49">
-        <v>150</v>
+        <v>2650</v>
       </c>
       <c r="G49">
         <v>2</v>
       </c>
       <c r="H49">
-        <v>90</v>
+        <v>750</v>
       </c>
       <c r="I49">
-        <v>0.35</v>
+        <v>0.5</v>
       </c>
       <c r="J49">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K49" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L49">
         <v>0</v>
       </c>
       <c r="M49">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="N49" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O49">
         <v>0</v>
@@ -8296,13 +8299,13 @@
         <v>510</v>
       </c>
       <c r="AT49">
-        <v>750</v>
+        <v>1080</v>
       </c>
       <c r="AU49">
-        <v>810</v>
+        <v>600</v>
       </c>
       <c r="AV49">
-        <v>1080</v>
+        <v>840</v>
       </c>
       <c r="AW49">
         <v>0</v>
@@ -8311,39 +8314,39 @@
         <v>0</v>
       </c>
       <c r="AY49">
-        <v>0.35</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="50" spans="1:51">
       <c r="A50" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B50">
         <v>1</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D50" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E50">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F50">
-        <v>40</v>
+        <v>850</v>
       </c>
       <c r="G50">
         <v>2</v>
       </c>
       <c r="H50">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="I50">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="J50">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="K50" t="s">
         <v>113</v>
@@ -8448,16 +8451,16 @@
         <v>0</v>
       </c>
       <c r="AS50">
-        <v>0</v>
+        <v>510</v>
       </c>
       <c r="AT50">
-        <v>336</v>
+        <v>720</v>
       </c>
       <c r="AU50">
-        <v>1110</v>
+        <v>780</v>
       </c>
       <c r="AV50">
-        <v>1440</v>
+        <v>1080</v>
       </c>
       <c r="AW50">
         <v>0</v>
@@ -8466,39 +8469,39 @@
         <v>0</v>
       </c>
       <c r="AY50">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="51" spans="1:51">
       <c r="A51" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B51">
         <v>1</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D51" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E51">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="F51">
-        <v>150</v>
+        <v>9000</v>
       </c>
       <c r="G51">
         <v>2</v>
       </c>
       <c r="H51">
-        <v>310</v>
+        <v>420</v>
       </c>
       <c r="I51">
-        <v>0.2</v>
+        <v>0.35</v>
       </c>
       <c r="J51">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="K51" t="s">
         <v>113</v>
@@ -8606,10 +8609,10 @@
         <v>0</v>
       </c>
       <c r="AT51">
-        <v>336</v>
+        <v>600</v>
       </c>
       <c r="AU51">
-        <v>1110</v>
+        <v>1260</v>
       </c>
       <c r="AV51">
         <v>1440</v>
@@ -8621,472 +8624,7 @@
         <v>0</v>
       </c>
       <c r="AY51">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:51">
-      <c r="A52" t="s">
-        <v>58</v>
-      </c>
-      <c r="B52">
-        <v>3</v>
-      </c>
-      <c r="C52">
-        <v>0</v>
-      </c>
-      <c r="D52" t="s">
-        <v>109</v>
-      </c>
-      <c r="E52">
-        <v>10</v>
-      </c>
-      <c r="F52">
-        <v>26</v>
-      </c>
-      <c r="G52">
-        <v>1</v>
-      </c>
-      <c r="H52">
-        <v>210</v>
-      </c>
-      <c r="I52">
-        <v>0.1</v>
-      </c>
-      <c r="J52">
-        <v>60</v>
-      </c>
-      <c r="K52" t="s">
-        <v>113</v>
-      </c>
-      <c r="L52">
-        <v>0</v>
-      </c>
-      <c r="M52">
-        <v>1</v>
-      </c>
-      <c r="N52" t="s">
-        <v>113</v>
-      </c>
-      <c r="O52">
-        <v>0</v>
-      </c>
-      <c r="P52">
-        <v>0</v>
-      </c>
-      <c r="Q52">
-        <v>2</v>
-      </c>
-      <c r="R52">
-        <v>0</v>
-      </c>
-      <c r="S52">
-        <v>0</v>
-      </c>
-      <c r="T52">
-        <v>0</v>
-      </c>
-      <c r="U52">
-        <v>0</v>
-      </c>
-      <c r="V52">
-        <v>0</v>
-      </c>
-      <c r="W52">
-        <v>0</v>
-      </c>
-      <c r="X52">
-        <v>0</v>
-      </c>
-      <c r="Y52">
-        <v>0</v>
-      </c>
-      <c r="Z52">
-        <v>0</v>
-      </c>
-      <c r="AA52">
-        <v>0</v>
-      </c>
-      <c r="AB52">
-        <v>0</v>
-      </c>
-      <c r="AC52">
-        <v>0</v>
-      </c>
-      <c r="AD52">
-        <v>0</v>
-      </c>
-      <c r="AE52">
-        <v>0</v>
-      </c>
-      <c r="AF52">
-        <v>0</v>
-      </c>
-      <c r="AG52">
-        <v>0</v>
-      </c>
-      <c r="AH52">
-        <v>0</v>
-      </c>
-      <c r="AI52">
-        <v>0</v>
-      </c>
-      <c r="AJ52">
-        <v>0</v>
-      </c>
-      <c r="AK52">
-        <v>0</v>
-      </c>
-      <c r="AL52">
-        <v>0</v>
-      </c>
-      <c r="AM52">
-        <v>0</v>
-      </c>
-      <c r="AN52">
-        <v>0</v>
-      </c>
-      <c r="AO52">
-        <v>0</v>
-      </c>
-      <c r="AP52">
-        <v>0</v>
-      </c>
-      <c r="AQ52">
-        <v>0</v>
-      </c>
-      <c r="AR52">
-        <v>0</v>
-      </c>
-      <c r="AS52">
-        <v>0</v>
-      </c>
-      <c r="AT52">
-        <v>1440</v>
-      </c>
-      <c r="AU52">
-        <v>0</v>
-      </c>
-      <c r="AV52">
-        <v>0</v>
-      </c>
-      <c r="AW52">
-        <v>0</v>
-      </c>
-      <c r="AX52">
-        <v>0</v>
-      </c>
-      <c r="AY52">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:51">
-      <c r="A53" t="s">
-        <v>58</v>
-      </c>
-      <c r="B53">
-        <v>3</v>
-      </c>
-      <c r="C53">
-        <v>0</v>
-      </c>
-      <c r="D53" t="s">
-        <v>110</v>
-      </c>
-      <c r="E53">
-        <v>7</v>
-      </c>
-      <c r="F53">
-        <v>26</v>
-      </c>
-      <c r="G53">
-        <v>1</v>
-      </c>
-      <c r="H53">
-        <v>150</v>
-      </c>
-      <c r="I53">
-        <v>0.1</v>
-      </c>
-      <c r="J53">
-        <v>60</v>
-      </c>
-      <c r="K53" t="s">
-        <v>113</v>
-      </c>
-      <c r="L53">
-        <v>0</v>
-      </c>
-      <c r="M53">
-        <v>1</v>
-      </c>
-      <c r="N53" t="s">
-        <v>113</v>
-      </c>
-      <c r="O53">
-        <v>0</v>
-      </c>
-      <c r="P53">
-        <v>0</v>
-      </c>
-      <c r="Q53">
-        <v>2</v>
-      </c>
-      <c r="R53">
-        <v>0</v>
-      </c>
-      <c r="S53">
-        <v>0</v>
-      </c>
-      <c r="T53">
-        <v>0</v>
-      </c>
-      <c r="U53">
-        <v>0</v>
-      </c>
-      <c r="V53">
-        <v>0</v>
-      </c>
-      <c r="W53">
-        <v>0</v>
-      </c>
-      <c r="X53">
-        <v>0</v>
-      </c>
-      <c r="Y53">
-        <v>0</v>
-      </c>
-      <c r="Z53">
-        <v>0</v>
-      </c>
-      <c r="AA53">
-        <v>0</v>
-      </c>
-      <c r="AB53">
-        <v>0</v>
-      </c>
-      <c r="AC53">
-        <v>0</v>
-      </c>
-      <c r="AD53">
-        <v>0</v>
-      </c>
-      <c r="AE53">
-        <v>0</v>
-      </c>
-      <c r="AF53">
-        <v>0</v>
-      </c>
-      <c r="AG53">
-        <v>0</v>
-      </c>
-      <c r="AH53">
-        <v>0</v>
-      </c>
-      <c r="AI53">
-        <v>0</v>
-      </c>
-      <c r="AJ53">
-        <v>0</v>
-      </c>
-      <c r="AK53">
-        <v>0</v>
-      </c>
-      <c r="AL53">
-        <v>0</v>
-      </c>
-      <c r="AM53">
-        <v>0</v>
-      </c>
-      <c r="AN53">
-        <v>0</v>
-      </c>
-      <c r="AO53">
-        <v>0</v>
-      </c>
-      <c r="AP53">
-        <v>0</v>
-      </c>
-      <c r="AQ53">
-        <v>0</v>
-      </c>
-      <c r="AR53">
-        <v>0</v>
-      </c>
-      <c r="AS53">
-        <v>0</v>
-      </c>
-      <c r="AT53">
-        <v>1440</v>
-      </c>
-      <c r="AU53">
-        <v>0</v>
-      </c>
-      <c r="AV53">
-        <v>0</v>
-      </c>
-      <c r="AW53">
-        <v>0</v>
-      </c>
-      <c r="AX53">
-        <v>0</v>
-      </c>
-      <c r="AY53">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:51">
-      <c r="A54" t="s">
-        <v>58</v>
-      </c>
-      <c r="B54">
-        <v>3</v>
-      </c>
-      <c r="C54">
-        <v>0</v>
-      </c>
-      <c r="D54" t="s">
-        <v>111</v>
-      </c>
-      <c r="E54">
-        <v>1</v>
-      </c>
-      <c r="F54">
-        <v>100</v>
-      </c>
-      <c r="G54">
-        <v>1</v>
-      </c>
-      <c r="H54">
-        <v>150</v>
-      </c>
-      <c r="I54">
-        <v>0.1</v>
-      </c>
-      <c r="J54">
-        <v>60</v>
-      </c>
-      <c r="K54" t="s">
-        <v>112</v>
-      </c>
-      <c r="L54">
-        <v>0</v>
-      </c>
-      <c r="M54">
-        <v>1</v>
-      </c>
-      <c r="N54" t="s">
-        <v>112</v>
-      </c>
-      <c r="O54">
-        <v>0</v>
-      </c>
-      <c r="P54">
-        <v>0</v>
-      </c>
-      <c r="Q54">
-        <v>2</v>
-      </c>
-      <c r="R54">
-        <v>0</v>
-      </c>
-      <c r="S54">
-        <v>0</v>
-      </c>
-      <c r="T54">
-        <v>0</v>
-      </c>
-      <c r="U54">
-        <v>0</v>
-      </c>
-      <c r="V54">
-        <v>0</v>
-      </c>
-      <c r="W54">
-        <v>0</v>
-      </c>
-      <c r="X54">
-        <v>0</v>
-      </c>
-      <c r="Y54">
-        <v>0</v>
-      </c>
-      <c r="Z54">
-        <v>0</v>
-      </c>
-      <c r="AA54">
-        <v>0</v>
-      </c>
-      <c r="AB54">
-        <v>0</v>
-      </c>
-      <c r="AC54">
-        <v>0</v>
-      </c>
-      <c r="AD54">
-        <v>0</v>
-      </c>
-      <c r="AE54">
-        <v>0</v>
-      </c>
-      <c r="AF54">
-        <v>0</v>
-      </c>
-      <c r="AG54">
-        <v>0</v>
-      </c>
-      <c r="AH54">
-        <v>0</v>
-      </c>
-      <c r="AI54">
-        <v>0</v>
-      </c>
-      <c r="AJ54">
-        <v>0</v>
-      </c>
-      <c r="AK54">
-        <v>0</v>
-      </c>
-      <c r="AL54">
-        <v>0</v>
-      </c>
-      <c r="AM54">
-        <v>0</v>
-      </c>
-      <c r="AN54">
-        <v>0</v>
-      </c>
-      <c r="AO54">
-        <v>0</v>
-      </c>
-      <c r="AP54">
-        <v>0</v>
-      </c>
-      <c r="AQ54">
-        <v>0</v>
-      </c>
-      <c r="AR54">
-        <v>0</v>
-      </c>
-      <c r="AS54">
-        <v>0</v>
-      </c>
-      <c r="AT54">
-        <v>1350</v>
-      </c>
-      <c r="AU54">
-        <v>0</v>
-      </c>
-      <c r="AV54">
-        <v>0</v>
-      </c>
-      <c r="AW54">
-        <v>0</v>
-      </c>
-      <c r="AX54">
-        <v>0</v>
-      </c>
-      <c r="AY54">
-        <v>0.1</v>
+        <v>0.35</v>
       </c>
     </row>
   </sheetData>
